--- a/webScrapping/espn_scrapper/IPL/Chennai Super Kings/Shane Watson.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Chennai Super Kings/Shane Watson.xlsx
@@ -439,37 +439,37 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 17 2020</v>
+        <v xml:space="preserve"> Oct 13 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Capitals won by 5 wickets (with 1 ball remaining)</v>
+        <v>Super Kings won by 20 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="E2" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F2" t="str">
         <v>Shane Watson</v>
       </c>
       <c r="G2" t="str">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H2" t="str">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I2" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K2" t="str">
-        <v>128.57</v>
+        <v>110.52</v>
       </c>
     </row>
     <row r="3">
@@ -509,37 +509,37 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 13 2020</v>
+        <v xml:space="preserve"> Oct 17 2020</v>
       </c>
       <c r="B4" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C4" t="str">
-        <v>Super Kings won by 20 runs</v>
+        <v>Capitals won by 5 wickets (with 1 ball remaining)</v>
       </c>
       <c r="D4" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="E4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="F4" t="str">
         <v>Shane Watson</v>
       </c>
       <c r="G4" t="str">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H4" t="str">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I4" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>110.52</v>
+        <v>128.57</v>
       </c>
     </row>
   </sheetData>
